--- a/Test Cases/US-2.2_Accountant_Account receivable functionality_TCs.xlsx
+++ b/Test Cases/US-2.2_Accountant_Account receivable functionality_TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{083C7437-5B3C-4F23-90F0-D4578BBCD23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4235748-E77B-46C3-A6EE-E5FA605AD5C0}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{083C7437-5B3C-4F23-90F0-D4578BBCD23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB2E13D2-5EB0-4FFF-9F2A-109A76759752}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="80">
   <si>
     <t>Subject</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Customer associated with invoice should be displayed in dropdown from existing customer record.</t>
   </si>
   <si>
-    <t>Validate dropdown field.</t>
-  </si>
-  <si>
     <t>Step 13</t>
   </si>
   <si>
@@ -274,6 +271,33 @@
   </si>
   <si>
     <t>Accounting system -Test Sprint 1/US2.2/Adding new accounts receivable enteries on Accountant dashboard</t>
+  </si>
+  <si>
+    <t>Validate receivableID field.</t>
+  </si>
+  <si>
+    <t>Validate entryID field.</t>
+  </si>
+  <si>
+    <t>Validate customerID field.</t>
+  </si>
+  <si>
+    <t>Step 14</t>
+  </si>
+  <si>
+    <t>Step 15</t>
+  </si>
+  <si>
+    <t>Step 16</t>
+  </si>
+  <si>
+    <t>Step 17</t>
+  </si>
+  <si>
+    <t>Validate customer dropdown field when all required fields are filled.</t>
+  </si>
+  <si>
+    <t>Validate customer dropdown field.</t>
   </si>
 </sst>
 </file>
@@ -664,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="73" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +728,7 @@
     </row>
     <row r="2" spans="1:6" ht="237.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -794,7 +818,7 @@
     </row>
     <row r="8" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -952,7 +976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -960,30 +984,24 @@
         <v>46</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -991,27 +1009,33 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1019,39 +1043,41 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1059,61 +1085,61 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1121,27 +1147,27 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1149,33 +1175,27 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
       <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1183,27 +1203,33 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1211,27 +1237,27 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1239,27 +1265,27 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1267,13 +1293,13 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1281,10 +1307,10 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>24</v>
@@ -1295,27 +1321,27 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1323,33 +1349,27 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1357,13 +1377,13 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1371,13 +1391,13 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1385,13 +1405,13 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1399,13 +1419,13 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1413,47 +1433,47 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="2" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1461,13 +1481,13 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1475,41 +1495,41 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1517,68 +1537,214 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="E67" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>27</v>
       </c>
     </row>
